--- a/score_KNIP11.xlsx
+++ b/score_KNIP11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="178">
   <si>
     <t>Fundo</t>
   </si>
@@ -78,12 +78,6 @@
     <t>G11</t>
   </si>
   <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>G13</t>
-  </si>
-  <si>
     <t>21E0407810</t>
   </si>
   <si>
@@ -525,13 +519,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['Cotas de Fundo (FIP, FII etc.) e ações']</t>
-  </si>
-  <si>
     <t>FR</t>
-  </si>
-  <si>
-    <t>cotas de fundo (fip, fii etc.) e acoes</t>
   </si>
   <si>
     <t>H</t>
@@ -938,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>87.69428629698334</v>
+        <v>95.30687770173077</v>
       </c>
     </row>
   </sheetData>
@@ -948,13 +936,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T113"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,3488 +997,3410 @@
       <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
       </c>
       <c r="C2">
         <v>0.0508091268544034</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0.0434291332366344</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0.0351685066154232</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0.0325550356590242</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>0.0325550356590242</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0.0324534675299105</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>0.027980379472443</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>0.0257948771072309</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>0.0256238386979551</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>0.0229835064522819</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>0.0225863216595477</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>0.0206028716689083</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>0.0202000234964306</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>0.0197512521462172</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>0.0197004887962237</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" t="s">
         <v>168</v>
       </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" t="s">
-        <v>172</v>
-      </c>
       <c r="J16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>0.0192588666780326</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>0.0189439140473498</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>0.0188974069587662</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>0.0185874901768525</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>0.0177217261333006</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>0.0167410072918633</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>0.0167108196338832</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>0.0155666594577937</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>0.0147845552269212</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>0.0134589389257074</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>0.0128817664678892</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>0.012826851460066</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>0.0124942708804606</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J29" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="K29" t="s">
-        <v>148</v>
-      </c>
-      <c r="L29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>0.0124195458438846</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>0.0121394448043512</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" t="s">
+        <v>167</v>
+      </c>
+      <c r="L31" t="s">
         <v>171</v>
       </c>
-      <c r="K31" t="s">
-        <v>148</v>
-      </c>
-      <c r="L31" t="s">
-        <v>170</v>
-      </c>
-      <c r="M31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>0.0113864282628742</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I32" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="J32" t="s">
-        <v>148</v>
-      </c>
-      <c r="K32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>0.0111430192466964</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>0.0110579528247797</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J34" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s">
-        <v>148</v>
-      </c>
-      <c r="L34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>0.0107891096269196</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I35" t="s">
-        <v>171</v>
-      </c>
-      <c r="J35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>0.0106315033581441</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>0.0102712659929596</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>0.0102712659917026</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>0.0095248210678529</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>0.0094138518555509</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J40" t="s">
-        <v>171</v>
-      </c>
-      <c r="K40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>0.009332217380116701</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J41" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="K41" t="s">
-        <v>148</v>
-      </c>
-      <c r="L41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>0.0090190061114969</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>0.0089915315157764</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>0.0089495210486863</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G44">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>0.008815747064265999</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G45">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J45" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K45" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>0.0087813167182638</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J46" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>0.0079725684653403</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>0.0078714844264856</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>0.0074103286748454</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50">
         <v>0.0069414579029068</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G50">
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51">
         <v>0.0067560821673106</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52">
         <v>0.0067362104411125</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J52" t="s">
+        <v>146</v>
+      </c>
+      <c r="K52" t="s">
+        <v>167</v>
+      </c>
+      <c r="L52" t="s">
         <v>171</v>
       </c>
-      <c r="K52" t="s">
-        <v>148</v>
-      </c>
-      <c r="L52" t="s">
-        <v>170</v>
-      </c>
-      <c r="M52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53">
         <v>0.006439554783562</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F53" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" t="s">
         <v>171</v>
       </c>
-      <c r="K53" t="s">
-        <v>148</v>
-      </c>
-      <c r="L53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54">
         <v>0.0063470014919182</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55">
         <v>0.0060271479292751</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F55" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56">
         <v>0.0060077974070861</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J56" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="K56" t="s">
-        <v>148</v>
-      </c>
-      <c r="L56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57">
         <v>0.0059697641550304</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J57" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58">
         <v>0.0056396841496814</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F58" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G58">
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59">
         <v>0.0055965833440979</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G59">
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60">
         <v>0.0052964087549884</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I60" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="J60" t="s">
-        <v>148</v>
-      </c>
-      <c r="K60" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61">
         <v>0.005229989144622</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G61">
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J61" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62">
         <v>0.0050447284484518</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G62">
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J62" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63">
         <v>0.0049033071635995</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G63">
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J63" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64">
         <v>0.0047347236972088</v>
       </c>
       <c r="D64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G64">
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65">
         <v>0.0043603325544097</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J65" t="s">
-        <v>171</v>
-      </c>
-      <c r="K65" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66">
         <v>0.0040475993159173</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J66" t="s">
-        <v>171</v>
-      </c>
-      <c r="K66" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67">
         <v>0.0040355696653737</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K67" t="s">
-        <v>171</v>
-      </c>
-      <c r="L67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68">
         <v>0.0040178359237226</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G68">
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69">
         <v>0.0031474488607468</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G69">
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J69" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70">
         <v>0.0031270514291226</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G70">
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I70" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71">
         <v>0.0029120048990379</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F71" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J71" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="K71" t="s">
-        <v>148</v>
-      </c>
-      <c r="L71" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72">
         <v>0.002626145285035</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J72" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="K72" t="s">
-        <v>148</v>
-      </c>
-      <c r="L72" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73">
         <v>0.0025925820834162</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J73" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74">
         <v>0.0025722040779019</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I74" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75">
         <v>0.0023195691202388</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F75" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G75">
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C76">
         <v>0.0023016464674007</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F76" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G76">
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C77">
         <v>0.0019924551125404</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G77">
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I77" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C78">
         <v>0.0019220167461373</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F78" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G78">
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I78" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C79">
         <v>0.0019212038437665</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G79">
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C80">
         <v>0.0019124539324772</v>
       </c>
       <c r="D80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G80">
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J80" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C81">
         <v>0.0019083319870168</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G81">
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I81" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C82">
         <v>0.0018805916807302</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K82" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>0.0017419655961141</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G83">
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C84">
         <v>0.001617101949917</v>
       </c>
       <c r="D84" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84">
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I84" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C85">
         <v>0.0016138156326356</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85">
         <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I85" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C86">
         <v>0.0015561729910849</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86">
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I86" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C87">
         <v>0.001306997006005</v>
       </c>
       <c r="D87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87">
         <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C88">
         <v>0.0013045463357578</v>
       </c>
       <c r="D88" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88">
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C89">
         <v>0.0012876412897766</v>
       </c>
       <c r="D89" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G89">
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I89" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C90">
         <v>0.001229844115496</v>
       </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G90">
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I90" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C91">
         <v>0.0011399941315749</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E91" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C92">
         <v>0.0010415543452702</v>
       </c>
       <c r="D92" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G92">
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J92" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C93">
         <v>0.0010011361240467</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G93">
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I93" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C94">
         <v>0.0010008117856975</v>
       </c>
       <c r="D94" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F94" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95">
         <v>0.0009855792342464999</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E95" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F95" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G95">
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C96">
         <v>0.000972871776639</v>
       </c>
       <c r="D96" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C97">
         <v>0.0009124248289417</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E97" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F97" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G97">
         <v>3</v>
       </c>
       <c r="H97" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I97" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C98">
         <v>0.0007617693477016</v>
       </c>
       <c r="D98" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E98" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C99">
         <v>0.0006318989655025999</v>
       </c>
       <c r="D99" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E99" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F99" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G99">
         <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I99" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J99" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C100">
         <v>0.0004985431590814</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E100" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F100" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G100">
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I100" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C101">
         <v>0.0004401484062882</v>
       </c>
       <c r="D101" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F101" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C102">
         <v>0.0003802610019521</v>
       </c>
       <c r="D102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E102" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C103">
         <v>0.0003602579301616</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E103" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F103" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G103">
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I103" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C104">
         <v>0.0003514794290288</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E104" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F104" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G104">
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I104" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C105">
         <v>0.0003417065081766</v>
       </c>
       <c r="D105" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I105" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C106">
         <v>0.0002503339692749</v>
       </c>
       <c r="D106" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E106" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F106" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G106">
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I106" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C107">
         <v>0.0002483399860777</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C108">
         <v>0.0002404308354124</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E108" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F108" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I108" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J108" t="s">
+        <v>146</v>
+      </c>
+      <c r="K108" t="s">
+        <v>167</v>
+      </c>
+      <c r="L108" t="s">
         <v>171</v>
       </c>
-      <c r="K108" t="s">
-        <v>148</v>
-      </c>
-      <c r="L108" t="s">
-        <v>170</v>
-      </c>
-      <c r="M108" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C109">
         <v>0.000194808069756</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E109" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C110">
         <v>0.0001291331566814</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E110" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F110" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G110">
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C111">
         <v>2.647615853982352E-05</v>
       </c>
       <c r="D111" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F111" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G111">
         <v>3</v>
       </c>
       <c r="H111" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C112">
         <v>0.0009522016478875</v>
       </c>
       <c r="D112" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E112" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F112" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G112">
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I112" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4498,28 +4408,28 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C113">
         <v>0.0009522016478875</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E113" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F113" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G113">
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I113" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4540,22 +4450,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4569,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4578,7 +4488,7 @@
         <v>0.9999999999999944</v>
       </c>
       <c r="G2">
-        <v>87.69428629698334</v>
+        <v>95.30687770173077</v>
       </c>
     </row>
   </sheetData>
